--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3764883333333334</v>
+        <v>0.3128873333333334</v>
       </c>
       <c r="H2">
-        <v>1.129465</v>
+        <v>0.938662</v>
       </c>
       <c r="I2">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="J2">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N2">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O2">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P2">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q2">
-        <v>8.908135131615557</v>
+        <v>8.040923911024445</v>
       </c>
       <c r="R2">
-        <v>80.17321618454001</v>
+        <v>72.36831519921999</v>
       </c>
       <c r="S2">
-        <v>0.0297431826644698</v>
+        <v>0.01706371645354438</v>
       </c>
       <c r="T2">
-        <v>0.02974318266446981</v>
+        <v>0.01706371645354438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3764883333333334</v>
+        <v>0.3128873333333334</v>
       </c>
       <c r="H3">
-        <v>1.129465</v>
+        <v>0.938662</v>
       </c>
       <c r="I3">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="J3">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q3">
-        <v>0.06107945926222223</v>
+        <v>0.05076117222755556</v>
       </c>
       <c r="R3">
-        <v>0.54971513336</v>
+        <v>0.456850550048</v>
       </c>
       <c r="S3">
-        <v>0.0002039369056533212</v>
+        <v>0.0001077207369855818</v>
       </c>
       <c r="T3">
-        <v>0.0002039369056533212</v>
+        <v>0.0001077207369855818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3764883333333334</v>
+        <v>0.3128873333333334</v>
       </c>
       <c r="H4">
-        <v>1.129465</v>
+        <v>0.938662</v>
       </c>
       <c r="I4">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="J4">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N4">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O4">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P4">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q4">
-        <v>4.514464577217778</v>
+        <v>14.68292938908178</v>
       </c>
       <c r="R4">
-        <v>40.63018119496</v>
+        <v>132.146364501736</v>
       </c>
       <c r="S4">
-        <v>0.01507324962728929</v>
+        <v>0.03115877560527552</v>
       </c>
       <c r="T4">
-        <v>0.01507324962728929</v>
+        <v>0.03115877560527552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3764883333333334</v>
+        <v>0.3128873333333334</v>
       </c>
       <c r="H5">
-        <v>1.129465</v>
+        <v>0.938662</v>
       </c>
       <c r="I5">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="J5">
-        <v>0.3356562036953936</v>
+        <v>0.1947636400758337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N5">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O5">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P5">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q5">
-        <v>87.04593980423724</v>
+        <v>69.00372788043266</v>
       </c>
       <c r="R5">
-        <v>783.4134582381351</v>
+        <v>621.0335509238939</v>
       </c>
       <c r="S5">
-        <v>0.2906358344979812</v>
+        <v>0.1464334272800282</v>
       </c>
       <c r="T5">
-        <v>0.2906358344979812</v>
+        <v>0.1464334272800282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.358401</v>
       </c>
       <c r="I6">
-        <v>0.4036917680105416</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="J6">
-        <v>0.4036917680105415</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N6">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O6">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P6">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q6">
-        <v>10.71376241930622</v>
+        <v>11.63656255570111</v>
       </c>
       <c r="R6">
-        <v>96.423861773756</v>
+        <v>104.72906300131</v>
       </c>
       <c r="S6">
-        <v>0.03577195315888358</v>
+        <v>0.02469405333784806</v>
       </c>
       <c r="T6">
-        <v>0.03577195315888358</v>
+        <v>0.02469405333784806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.358401</v>
       </c>
       <c r="I7">
-        <v>0.4036917680105416</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="J7">
-        <v>0.4036917680105415</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q7">
         <v>0.07345991114488888</v>
@@ -883,10 +883,10 @@
         <v>0.661139200304</v>
       </c>
       <c r="S7">
-        <v>0.000245273732764076</v>
+        <v>0.0001558899335883963</v>
       </c>
       <c r="T7">
-        <v>0.000245273732764076</v>
+        <v>0.0001558899335883964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.358401</v>
       </c>
       <c r="I8">
-        <v>0.4036917680105416</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="J8">
-        <v>0.4036917680105415</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N8">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O8">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P8">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q8">
-        <v>5.42952034472711</v>
+        <v>21.24865602853644</v>
       </c>
       <c r="R8">
-        <v>48.865683102544</v>
+        <v>191.237904256828</v>
       </c>
       <c r="S8">
-        <v>0.01812850984046375</v>
+        <v>0.0450919627522813</v>
       </c>
       <c r="T8">
-        <v>0.01812850984046375</v>
+        <v>0.04509196275228131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.358401</v>
       </c>
       <c r="I9">
-        <v>0.4036917680105416</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="J9">
-        <v>0.4036917680105415</v>
+        <v>0.2818555810746068</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N9">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O9">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P9">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q9">
-        <v>104.6896465813599</v>
+        <v>99.85994208405965</v>
       </c>
       <c r="R9">
-        <v>942.206819232239</v>
+        <v>898.739478756537</v>
       </c>
       <c r="S9">
-        <v>0.3495460312784301</v>
+        <v>0.211913675050889</v>
       </c>
       <c r="T9">
-        <v>0.3495460312784301</v>
+        <v>0.211913675050889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169116666666667</v>
+        <v>0.5847920000000001</v>
       </c>
       <c r="H10">
-        <v>0.350735</v>
+        <v>1.754376</v>
       </c>
       <c r="I10">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="J10">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N10">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O10">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P10">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q10">
-        <v>2.766260818517778</v>
+        <v>15.02863003650667</v>
       </c>
       <c r="R10">
-        <v>24.89634736666</v>
+        <v>135.25767032856</v>
       </c>
       <c r="S10">
-        <v>0.009236209330809557</v>
+        <v>0.03189239003699241</v>
       </c>
       <c r="T10">
-        <v>0.009236209330809557</v>
+        <v>0.03189239003699242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169116666666667</v>
+        <v>0.5847920000000001</v>
       </c>
       <c r="H11">
-        <v>0.350735</v>
+        <v>1.754376</v>
       </c>
       <c r="I11">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="J11">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q11">
-        <v>0.01896712527111111</v>
+        <v>0.09487353518933335</v>
       </c>
       <c r="R11">
-        <v>0.17070412744</v>
+        <v>0.8538618167040001</v>
       </c>
       <c r="S11">
-        <v>6.332893060370849E-05</v>
+        <v>0.0002013319764407391</v>
       </c>
       <c r="T11">
-        <v>6.332893060370847E-05</v>
+        <v>0.0002013319764407391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169116666666667</v>
+        <v>0.5847920000000001</v>
       </c>
       <c r="H12">
-        <v>0.350735</v>
+        <v>1.754376</v>
       </c>
       <c r="I12">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="J12">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N12">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O12">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P12">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q12">
-        <v>1.401885612648889</v>
+        <v>27.44265660045867</v>
       </c>
       <c r="R12">
-        <v>12.61697051384</v>
+        <v>246.983909404128</v>
       </c>
       <c r="S12">
-        <v>0.00468072601455318</v>
+        <v>0.05823630669109951</v>
       </c>
       <c r="T12">
-        <v>0.004680726014553181</v>
+        <v>0.05823630669109952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169116666666667</v>
+        <v>0.5847920000000001</v>
       </c>
       <c r="H13">
-        <v>0.350735</v>
+        <v>1.754376</v>
       </c>
       <c r="I13">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="J13">
-        <v>0.1042319847034692</v>
+        <v>0.3640167129613011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N13">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O13">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P13">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q13">
-        <v>27.03054782329611</v>
+        <v>128.969196690568</v>
       </c>
       <c r="R13">
-        <v>243.274930409665</v>
+        <v>1160.722770215112</v>
       </c>
       <c r="S13">
-        <v>0.09025172042750279</v>
+        <v>0.2736866842567684</v>
       </c>
       <c r="T13">
-        <v>0.09025172042750279</v>
+        <v>0.2736866842567685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1754483333333333</v>
+        <v>0.256018</v>
       </c>
       <c r="H14">
-        <v>0.526345</v>
+        <v>0.768054</v>
       </c>
       <c r="I14">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="J14">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N14">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O14">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P14">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q14">
-        <v>4.151303834868888</v>
+        <v>6.579433037193333</v>
       </c>
       <c r="R14">
-        <v>37.36173451382</v>
+        <v>59.21489733473999</v>
       </c>
       <c r="S14">
-        <v>0.01386069995929963</v>
+        <v>0.01396227361607328</v>
       </c>
       <c r="T14">
-        <v>0.01386069995929963</v>
+        <v>0.01396227361607328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1754483333333333</v>
+        <v>0.256018</v>
       </c>
       <c r="H15">
-        <v>0.526345</v>
+        <v>0.768054</v>
       </c>
       <c r="I15">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="J15">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.486704</v>
       </c>
       <c r="O15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q15">
-        <v>0.02846380187555555</v>
+        <v>0.04153499489066667</v>
       </c>
       <c r="R15">
-        <v>0.25617421688</v>
+        <v>0.373814954016</v>
       </c>
       <c r="S15">
-        <v>9.503718185698302E-05</v>
+        <v>8.814178365026392E-05</v>
       </c>
       <c r="T15">
-        <v>9.503718185698301E-05</v>
+        <v>8.814178365026392E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1754483333333333</v>
+        <v>0.256018</v>
       </c>
       <c r="H16">
-        <v>0.526345</v>
+        <v>0.768054</v>
       </c>
       <c r="I16">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="J16">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N16">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O16">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P16">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q16">
-        <v>2.103797689964444</v>
+        <v>12.01421027910134</v>
       </c>
       <c r="R16">
-        <v>18.93417920968</v>
+        <v>108.127892511912</v>
       </c>
       <c r="S16">
-        <v>0.007024325300098347</v>
+        <v>0.0254954629448452</v>
       </c>
       <c r="T16">
-        <v>0.007024325300098347</v>
+        <v>0.0254954629448452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1754483333333333</v>
+        <v>0.256018</v>
       </c>
       <c r="H17">
-        <v>0.526345</v>
+        <v>0.768054</v>
       </c>
       <c r="I17">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="J17">
-        <v>0.1564200435905955</v>
+        <v>0.1593640658882584</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N17">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O17">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P17">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q17">
-        <v>40.56451079605056</v>
+        <v>56.46184591842201</v>
       </c>
       <c r="R17">
-        <v>365.080597164455</v>
+        <v>508.156613265798</v>
       </c>
       <c r="S17">
-        <v>0.1354399811493405</v>
+        <v>0.1198181875436896</v>
       </c>
       <c r="T17">
-        <v>0.1354399811493405</v>
+        <v>0.1198181875436896</v>
       </c>
     </row>
   </sheetData>
